--- a/HuntingBrave_client/DATA/enemy_data.xlsx
+++ b/HuntingBrave_client/DATA/enemy_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">攻撃力 </t>
     <phoneticPr fontId="18"/>
@@ -49,11 +49,27 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ワイバーン</t>
+    <t>グータラーデーモン</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>グータラーデーモン</t>
+    <t>キノコモドキ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>はたらきインプ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スーパードラコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コドモドラコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>音符くん</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -994,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,55 +1075,117 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>1200</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1200</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>45</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>100</v>
       </c>
     </row>

--- a/HuntingBrave_client/DATA/enemy_data.xlsx
+++ b/HuntingBrave_client/DATA/enemy_data.xlsx
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1115,26 +1115,50 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>70</v>
       </c>
       <c r="G4">
         <v>20</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
       <c r="G5">
         <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
